--- a/1st_round_screening/ACE/iteration_0/data/labeled_norm_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/labeled_norm_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,135 +441,120 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Drug_MW</t>
+          <t>Drug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Drug_LogP</t>
+          <t>SL_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Drug_TPSA</t>
+          <t>SL_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>SL_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SL_1</t>
+          <t>LL_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SL_2</t>
+          <t>LL_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SL_3</t>
+          <t>LL_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LL_1</t>
+          <t>P_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LL_2</t>
+          <t>P_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LL_3</t>
+          <t>P_3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P_1</t>
+          <t>S_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P_2</t>
+          <t>S_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P_3</t>
+          <t>S_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>S_1</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S_2</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>S_3</t>
+          <t>Complexity_STD</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Formulation</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Complexity_STD</t>
+          <t>Size_STD</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Formulation</t>
+          <t>PDI</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>PDI_STD</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Size_STD</t>
+          <t>Formulation Quality</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>PDI</t>
+          <t>Solu</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>PDI_STD</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Formulation Quality</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Solu</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Solu_STD</t>
         </is>
@@ -580,55 +565,57 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>354</v>
+        <v>0.097</v>
       </c>
       <c r="C2" t="n">
-        <v>3.91</v>
+        <v>0.119</v>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>0.101</v>
       </c>
       <c r="E2" t="n">
-        <v>0.096</v>
+        <v>0.062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.119</v>
+        <v>0.193</v>
       </c>
       <c r="G2" t="n">
-        <v>0.099</v>
+        <v>0.016</v>
       </c>
       <c r="H2" t="n">
-        <v>0.063</v>
+        <v>0.018</v>
       </c>
       <c r="I2" t="n">
-        <v>0.192</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.017</v>
+        <v>0.171</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02</v>
+        <v>0.153</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.259</v>
       </c>
       <c r="M2" t="n">
-        <v>0.17</v>
+        <v>0.259</v>
       </c>
       <c r="N2" t="n">
-        <v>0.153</v>
+        <v>0.233</v>
       </c>
       <c r="O2" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
       <c r="P2" t="n">
-        <v>0.258</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.249</v>
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Formulation 1</t>
+        </is>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -636,30 +623,19 @@
       <c r="T2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Formulation 1</t>
-        </is>
+      <c r="U2" t="n">
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,55 +644,57 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>354</v>
+        <v>0.167</v>
       </c>
       <c r="C3" t="n">
-        <v>3.91</v>
+        <v>0.066</v>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>0.09</v>
       </c>
       <c r="E3" t="n">
-        <v>0.166</v>
+        <v>0.151</v>
       </c>
       <c r="F3" t="n">
-        <v>0.068</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09</v>
+        <v>0.118</v>
       </c>
       <c r="H3" t="n">
-        <v>0.151</v>
+        <v>0.14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="J3" t="n">
-        <v>0.117</v>
+        <v>0.047</v>
       </c>
       <c r="K3" t="n">
-        <v>0.14</v>
+        <v>0.036</v>
       </c>
       <c r="L3" t="n">
-        <v>0.094</v>
+        <v>0.529</v>
       </c>
       <c r="M3" t="n">
-        <v>0.046</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0.037</v>
+        <v>0.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.517</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.073</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.002</v>
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Formulation 2</t>
+        </is>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -724,30 +702,19 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Formulation 2</t>
-        </is>
+      <c r="U3" t="n">
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -756,86 +723,77 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>354</v>
+        <v>0.119</v>
       </c>
       <c r="C4" t="n">
-        <v>3.91</v>
+        <v>0.18</v>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>0.028</v>
       </c>
       <c r="E4" t="n">
-        <v>0.118</v>
+        <v>0.056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.179</v>
+        <v>0.044</v>
       </c>
       <c r="G4" t="n">
-        <v>0.031</v>
+        <v>0.222</v>
       </c>
       <c r="H4" t="n">
-        <v>0.057</v>
+        <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.045</v>
+        <v>0.215</v>
       </c>
       <c r="J4" t="n">
-        <v>0.219</v>
+        <v>0.005</v>
       </c>
       <c r="K4" t="n">
-        <v>0.063</v>
+        <v>0.066</v>
       </c>
       <c r="L4" t="n">
-        <v>0.215</v>
+        <v>0.101</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006</v>
+        <v>0.19</v>
       </c>
       <c r="N4" t="n">
-        <v>0.067</v>
+        <v>0.38</v>
       </c>
       <c r="O4" t="n">
-        <v>0.103</v>
+        <v>0.329</v>
       </c>
       <c r="P4" t="n">
-        <v>0.192</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.374</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.331</v>
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Formulation 3</t>
+        </is>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.3165962690446535</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Formulation 3</t>
-        </is>
+        <v>0.01286497902825322</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.3694414958397093</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3165962690446535</v>
+        <v>0.08403581936850435</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01286497902825322</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3694414958397093</v>
+        <v>0.119</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.08403581936850435</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="AB4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -844,86 +802,77 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>3.91</v>
+        <v>0.039</v>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>0.17</v>
       </c>
       <c r="E5" t="n">
-        <v>0.016</v>
+        <v>0.139</v>
       </c>
       <c r="F5" t="n">
-        <v>0.039</v>
+        <v>0.141</v>
       </c>
       <c r="G5" t="n">
-        <v>0.169</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.14</v>
+        <v>0.116</v>
       </c>
       <c r="I5" t="n">
-        <v>0.141</v>
+        <v>0.041</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="K5" t="n">
-        <v>0.117</v>
+        <v>0.145</v>
       </c>
       <c r="L5" t="n">
-        <v>0.041</v>
+        <v>0.343</v>
       </c>
       <c r="M5" t="n">
-        <v>0.121</v>
+        <v>0.372</v>
       </c>
       <c r="N5" t="n">
-        <v>0.145</v>
+        <v>0.064</v>
       </c>
       <c r="O5" t="n">
-        <v>0.344</v>
+        <v>0.221</v>
       </c>
       <c r="P5" t="n">
-        <v>0.372</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.219</v>
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Formulation 4</t>
+        </is>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0.2523436547494435</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Formulation 4</t>
-        </is>
+        <v>0.01114085403619223</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.3594793572171672</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2523436547494435</v>
+        <v>0.03533430652970124</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01114085403619223</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3594793572171672</v>
+        <v>0.017</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03533430652970124</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="AB5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -932,86 +881,77 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354</v>
+        <v>0.048</v>
       </c>
       <c r="C6" t="n">
-        <v>3.91</v>
+        <v>0.196</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>0.158</v>
       </c>
       <c r="E6" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Formulation 5</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>0.3236253506597219</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.002417202204170175</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.4320437796081616</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.03180766512831895</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
         <v>0.048</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Formulation 5</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
-        <v>0.3236253506597219</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.002417202204170175</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.4320437796081616</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0.03180766512831895</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="AB6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1020,86 +960,77 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>354</v>
+        <v>0.175</v>
       </c>
       <c r="C7" t="n">
-        <v>3.91</v>
+        <v>0.025</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>0.063</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.173</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.16</v>
-      </c>
       <c r="N7" t="n">
-        <v>0.245</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3</v>
+        <v>0.441</v>
       </c>
       <c r="P7" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Formulation 6</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>0.2250731711836156</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.005758277460742139</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.2991493557516183</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.03818588853450817</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
         <v>0.175</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Formulation 6</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>0.2250731711836156</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.005758277460742139</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.2991493557516183</v>
-      </c>
       <c r="Y7" t="n">
-        <v>0.03818588853450817</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="AB7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1108,55 +1039,57 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>354</v>
+        <v>0.118</v>
       </c>
       <c r="C8" t="n">
-        <v>3.91</v>
+        <v>0.117</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>0.137</v>
       </c>
       <c r="E8" t="n">
-        <v>0.119</v>
+        <v>0.143</v>
       </c>
       <c r="F8" t="n">
-        <v>0.117</v>
+        <v>0.047</v>
       </c>
       <c r="G8" t="n">
-        <v>0.138</v>
+        <v>0.121</v>
       </c>
       <c r="H8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.142</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.122</v>
-      </c>
       <c r="K8" t="n">
-        <v>0.02</v>
+        <v>0.081</v>
       </c>
       <c r="L8" t="n">
-        <v>0.073</v>
+        <v>0.371</v>
       </c>
       <c r="M8" t="n">
-        <v>0.141</v>
+        <v>0.056</v>
       </c>
       <c r="N8" t="n">
-        <v>0.081</v>
+        <v>0.384</v>
       </c>
       <c r="O8" t="n">
-        <v>0.371</v>
+        <v>0.19</v>
       </c>
       <c r="P8" t="n">
-        <v>0.059</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.19</v>
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Formulation 7</t>
+        </is>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1164,30 +1097,19 @@
       <c r="T8" t="n">
         <v>0</v>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Formulation 7</t>
-        </is>
+      <c r="U8" t="n">
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1196,86 +1118,77 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>354</v>
+        <v>0.068</v>
       </c>
       <c r="C9" t="n">
-        <v>3.91</v>
+        <v>0.058</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>0.024</v>
       </c>
       <c r="E9" t="n">
-        <v>0.068</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.057</v>
+        <v>0.155</v>
       </c>
       <c r="G9" t="n">
-        <v>0.024</v>
+        <v>0.091</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.199</v>
       </c>
       <c r="I9" t="n">
-        <v>0.155</v>
+        <v>0.131</v>
       </c>
       <c r="J9" t="n">
-        <v>0.091</v>
+        <v>0.099</v>
       </c>
       <c r="K9" t="n">
-        <v>0.198</v>
+        <v>0.089</v>
       </c>
       <c r="L9" t="n">
-        <v>0.131</v>
+        <v>0.169</v>
       </c>
       <c r="M9" t="n">
-        <v>0.099</v>
+        <v>0.36</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09</v>
+        <v>0.178</v>
       </c>
       <c r="O9" t="n">
-        <v>0.168</v>
+        <v>0.293</v>
       </c>
       <c r="P9" t="n">
-        <v>0.361</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.295</v>
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Formulation 8</t>
+        </is>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0.2362228049075237</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Formulation 8</t>
-        </is>
+        <v>0.006701295130469354</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.300872374353554</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2362228049075237</v>
+        <v>0.04813242018450532</v>
       </c>
       <c r="W9" t="n">
-        <v>0.006701295130469354</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0.300872374353554</v>
+        <v>0.06800000000000002</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04813242018450532</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.06800000000000002</v>
-      </c>
-      <c r="AB9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,86 +1197,77 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>354</v>
+        <v>0.057</v>
       </c>
       <c r="C10" t="n">
-        <v>3.91</v>
+        <v>0.165</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>0.199</v>
       </c>
       <c r="E10" t="n">
-        <v>0.055</v>
+        <v>0.018</v>
       </c>
       <c r="F10" t="n">
-        <v>0.165</v>
+        <v>0.077</v>
       </c>
       <c r="G10" t="n">
-        <v>0.198</v>
+        <v>0.061</v>
       </c>
       <c r="H10" t="n">
-        <v>0.021</v>
+        <v>0.081</v>
       </c>
       <c r="I10" t="n">
-        <v>0.078</v>
+        <v>0.173</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06</v>
+        <v>0.028</v>
       </c>
       <c r="K10" t="n">
-        <v>0.082</v>
+        <v>0.14</v>
       </c>
       <c r="L10" t="n">
-        <v>0.173</v>
+        <v>0.249</v>
       </c>
       <c r="M10" t="n">
-        <v>0.028</v>
+        <v>0.487</v>
       </c>
       <c r="N10" t="n">
-        <v>0.139</v>
+        <v>0.073</v>
       </c>
       <c r="O10" t="n">
-        <v>0.246</v>
+        <v>0.192</v>
       </c>
       <c r="P10" t="n">
-        <v>0.484</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.193</v>
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Formulation 9</t>
+        </is>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0.2665427613650164</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Formulation 9</t>
-        </is>
+        <v>0.003875381900811745</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.3870587175226488</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2665427613650164</v>
+        <v>0.01254518028582209</v>
       </c>
       <c r="W10" t="n">
-        <v>0.003875381900811745</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0.3870587175226488</v>
+        <v>0.05700000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01254518028582209</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="AB10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1372,86 +1276,77 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>354</v>
+        <v>0.155</v>
       </c>
       <c r="C11" t="n">
-        <v>3.91</v>
+        <v>0.028</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>0.004</v>
       </c>
       <c r="E11" t="n">
-        <v>0.154</v>
+        <v>0.114</v>
       </c>
       <c r="F11" t="n">
-        <v>0.029</v>
+        <v>0.172</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003</v>
+        <v>0.187</v>
       </c>
       <c r="H11" t="n">
-        <v>0.115</v>
+        <v>0.136</v>
       </c>
       <c r="I11" t="n">
-        <v>0.171</v>
+        <v>0.002</v>
       </c>
       <c r="J11" t="n">
-        <v>0.186</v>
+        <v>0.136</v>
       </c>
       <c r="K11" t="n">
-        <v>0.136</v>
+        <v>0.065</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004</v>
+        <v>0.344</v>
       </c>
       <c r="M11" t="n">
-        <v>0.137</v>
+        <v>0.049</v>
       </c>
       <c r="N11" t="n">
-        <v>0.065</v>
+        <v>0.281</v>
       </c>
       <c r="O11" t="n">
-        <v>0.345</v>
+        <v>0.326</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.323</v>
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Formulation 10</t>
+        </is>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0.2943849220658297</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Formulation 10</t>
-        </is>
+        <v>0.00861663889933165</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.388992140782135</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2943849220658297</v>
+        <v>0.05047754137741706</v>
       </c>
       <c r="W11" t="n">
-        <v>0.00861663889933165</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0.388992140782135</v>
+        <v>0.155</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.05047754137741706</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="AB11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,86 +1355,77 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>354</v>
+        <v>0.135</v>
       </c>
       <c r="C12" t="n">
-        <v>3.91</v>
+        <v>0.093</v>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>0.118</v>
       </c>
       <c r="E12" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Formulation 11</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>0.2698442812833921</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.003129926998821827</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.4900801908800606</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.01166884365982591</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
         <v>0.135</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.119</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Formulation 11</t>
-        </is>
-      </c>
-      <c r="V12" t="n">
-        <v>0.2698442812833921</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.003129926998821827</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.4900801908800606</v>
-      </c>
       <c r="Y12" t="n">
-        <v>0.01166884365982591</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="AB12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1548,55 +1434,57 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>354</v>
+        <v>0.032</v>
       </c>
       <c r="C13" t="n">
-        <v>3.91</v>
+        <v>0.093</v>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.033</v>
+        <v>0.194</v>
       </c>
       <c r="F13" t="n">
-        <v>0.093</v>
+        <v>0.034</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="H13" t="n">
-        <v>0.192</v>
+        <v>0.182</v>
       </c>
       <c r="I13" t="n">
-        <v>0.036</v>
+        <v>0.145</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004</v>
+        <v>0.079</v>
       </c>
       <c r="K13" t="n">
-        <v>0.181</v>
+        <v>0.168</v>
       </c>
       <c r="L13" t="n">
-        <v>0.144</v>
+        <v>0.019</v>
       </c>
       <c r="M13" t="n">
-        <v>0.079</v>
+        <v>0.263</v>
       </c>
       <c r="N13" t="n">
-        <v>0.167</v>
+        <v>0.374</v>
       </c>
       <c r="O13" t="n">
-        <v>0.021</v>
+        <v>0.344</v>
       </c>
       <c r="P13" t="n">
-        <v>0.264</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.345</v>
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Formulation 12</t>
+        </is>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1604,30 +1492,19 @@
       <c r="T13" t="n">
         <v>0</v>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Formulation 12</t>
-        </is>
+      <c r="U13" t="n">
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1636,55 +1513,57 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>354</v>
+        <v>0.008</v>
       </c>
       <c r="C14" t="n">
-        <v>3.91</v>
+        <v>0.183</v>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>0.06</v>
       </c>
       <c r="E14" t="n">
-        <v>0.007</v>
+        <v>0.219</v>
       </c>
       <c r="F14" t="n">
-        <v>0.182</v>
+        <v>0.033</v>
       </c>
       <c r="G14" t="n">
-        <v>0.062</v>
+        <v>0.107</v>
       </c>
       <c r="H14" t="n">
-        <v>0.217</v>
+        <v>0.003</v>
       </c>
       <c r="I14" t="n">
-        <v>0.034</v>
+        <v>0.074</v>
       </c>
       <c r="J14" t="n">
-        <v>0.106</v>
+        <v>0.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003</v>
+        <v>0.104</v>
       </c>
       <c r="L14" t="n">
-        <v>0.076</v>
+        <v>0.262</v>
       </c>
       <c r="M14" t="n">
-        <v>0.208</v>
+        <v>0.29</v>
       </c>
       <c r="N14" t="n">
-        <v>0.106</v>
+        <v>0.173</v>
       </c>
       <c r="O14" t="n">
-        <v>0.262</v>
+        <v>0.276</v>
       </c>
       <c r="P14" t="n">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.274</v>
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Formulation 13</t>
+        </is>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1692,30 +1571,19 @@
       <c r="T14" t="n">
         <v>0</v>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Formulation 13</t>
-        </is>
+      <c r="U14" t="n">
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1724,86 +1592,77 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354</v>
+        <v>0.099</v>
       </c>
       <c r="C15" t="n">
-        <v>3.91</v>
+        <v>0.063</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>0.132</v>
       </c>
       <c r="E15" t="n">
-        <v>0.098</v>
+        <v>0.05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.063</v>
+        <v>0.099</v>
       </c>
       <c r="G15" t="n">
-        <v>0.132</v>
+        <v>0.144</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.149</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
       <c r="J15" t="n">
-        <v>0.144</v>
+        <v>0.06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.148</v>
+        <v>0.101</v>
       </c>
       <c r="L15" t="n">
-        <v>0.103</v>
+        <v>0.11</v>
       </c>
       <c r="M15" t="n">
-        <v>0.061</v>
+        <v>0.247</v>
       </c>
       <c r="N15" t="n">
-        <v>0.101</v>
+        <v>0.473</v>
       </c>
       <c r="O15" t="n">
-        <v>0.111</v>
+        <v>0.17</v>
       </c>
       <c r="P15" t="n">
-        <v>0.247</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.171</v>
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Formulation 14</t>
+        </is>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0.2720716461230291</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>Formulation 14</t>
-        </is>
+        <v>0.007005825359365456</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.3114916973182834</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2720716461230291</v>
+        <v>0.03319225856381995</v>
       </c>
       <c r="W15" t="n">
-        <v>0.007005825359365456</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0.3114916973182834</v>
+        <v>0.09900000000000002</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.03319225856381995</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.09800000000000002</v>
-      </c>
-      <c r="AB15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,86 +1671,77 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354</v>
+        <v>0.146</v>
       </c>
       <c r="C16" t="n">
-        <v>3.91</v>
+        <v>0.143</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>0.059</v>
       </c>
       <c r="E16" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Formulation 15</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>0.2638337118535322</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.000830448861401737</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3911467164300211</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.01158054292498163</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
         <v>0.146</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>Formulation 15</t>
-        </is>
-      </c>
-      <c r="V16" t="n">
-        <v>0.2638337118535322</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.000830448861401737</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.3911467164300211</v>
-      </c>
       <c r="Y16" t="n">
-        <v>0.01158054292498163</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="AB16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1900,86 +1750,77 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>354</v>
+        <v>0.137</v>
       </c>
       <c r="C17" t="n">
-        <v>3.91</v>
+        <v>0.017</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>0.203</v>
       </c>
       <c r="E17" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Formulation 16</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>0.2437268700279911</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.01110678984296972</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.3473965305540008</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.02116336223649876</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
         <v>0.137</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.201</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>Formulation 16</t>
-        </is>
-      </c>
-      <c r="V17" t="n">
-        <v>0.2437268700279911</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.01110678984296972</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.3473965305540008</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0.02116336223649876</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="AB17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/1st_round_screening/ACE/iteration_0/data/labeled_norm_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/labeled_norm_0.xlsx
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.062</v>
+        <v>0.064</v>
       </c>
       <c r="F2" t="n">
-        <v>0.193</v>
+        <v>0.192</v>
       </c>
       <c r="G2" t="n">
         <v>0.016</v>
       </c>
       <c r="H2" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="J2" t="n">
-        <v>0.171</v>
+        <v>0.17</v>
       </c>
       <c r="K2" t="n">
-        <v>0.155</v>
+        <v>0.152</v>
       </c>
       <c r="L2" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.257</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.259</v>
       </c>
       <c r="N2" t="n">
         <v>0.236</v>
@@ -644,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.168</v>
+        <v>0.167</v>
       </c>
       <c r="C3" t="n">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
       <c r="D3" t="n">
         <v>0.09</v>
@@ -659,7 +659,7 @@
         <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.116</v>
+        <v>0.117</v>
       </c>
       <c r="H3" t="n">
         <v>0.14</v>
@@ -671,16 +671,16 @@
         <v>0.047</v>
       </c>
       <c r="K3" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="L3" t="n">
-        <v>0.514</v>
+        <v>0.522</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.058</v>
       </c>
       <c r="N3" t="n">
-        <v>0.414</v>
+        <v>0.42</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -723,46 +723,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="C4" t="n">
-        <v>0.181</v>
+        <v>0.18</v>
       </c>
       <c r="D4" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="E4" t="n">
         <v>0.056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="G4" t="n">
-        <v>0.221</v>
+        <v>0.22</v>
       </c>
       <c r="H4" t="n">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.216</v>
+        <v>0.215</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="K4" t="n">
-        <v>0.066</v>
+        <v>0.065</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="M4" t="n">
-        <v>0.194</v>
+        <v>0.19</v>
       </c>
       <c r="N4" t="n">
-        <v>0.375</v>
+        <v>0.373</v>
       </c>
       <c r="O4" t="n">
-        <v>0.331</v>
+        <v>0.335</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>0.2931388671555026</v>
+        <v>0.2692655305690121</v>
       </c>
       <c r="T4" t="n">
-        <v>0.006920320748094264</v>
+        <v>0.01058232884499269</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2905316651705427</v>
+        <v>0.2725136379896747</v>
       </c>
       <c r="V4" t="n">
-        <v>0.002886433268558964</v>
+        <v>0.04260986067977869</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17</v>
+        <v>0.171</v>
       </c>
       <c r="E5" t="n">
         <v>0.141</v>
@@ -817,31 +817,31 @@
         <v>0.141</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.118</v>
+        <v>0.116</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="J5" t="n">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="K5" t="n">
         <v>0.145</v>
       </c>
       <c r="L5" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="M5" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="N5" t="n">
-        <v>0.064</v>
+        <v>0.065</v>
       </c>
       <c r="O5" t="n">
-        <v>0.216</v>
+        <v>0.219</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0.2307704178819718</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.004715826848507722</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0.397356653064422</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.05203536660235145</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>0.112</v>
       </c>
       <c r="F6" t="n">
-        <v>0.114</v>
+        <v>0.112</v>
       </c>
       <c r="G6" t="n">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
       <c r="H6" t="n">
         <v>0.103</v>
@@ -911,13 +911,13 @@
         <v>0.011</v>
       </c>
       <c r="L6" t="n">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="M6" t="n">
-        <v>0.362</v>
+        <v>0.366</v>
       </c>
       <c r="N6" t="n">
-        <v>0.467</v>
+        <v>0.464</v>
       </c>
       <c r="O6" t="n">
         <v>0.118</v>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0.2894273918082823</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.01816726631179896</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0.3886663182560263</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.04220088652922346</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.04900000000000001</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.173</v>
+        <v>0.176</v>
       </c>
       <c r="C7" t="n">
         <v>0.025</v>
       </c>
       <c r="D7" t="n">
-        <v>0.064</v>
+        <v>0.061</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>0.247</v>
       </c>
       <c r="L7" t="n">
-        <v>0.301</v>
+        <v>0.3</v>
       </c>
       <c r="M7" t="n">
-        <v>0.174</v>
+        <v>0.173</v>
       </c>
       <c r="N7" t="n">
-        <v>0.082</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="P7" t="n">
         <v>0.8333333333333334</v>
@@ -1013,22 +1013,22 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>0.2258956451073806</v>
+        <v>0.2311390837123565</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004769538148113339</v>
+        <v>0.009360170967864338</v>
       </c>
       <c r="U7" t="n">
-        <v>0.264326968381107</v>
+        <v>0.279739678370664</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04117417298994668</v>
+        <v>0.03927688466609867</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0.173</v>
+        <v>0.176</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1039,22 +1039,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="C8" t="n">
         <v>0.117</v>
       </c>
       <c r="D8" t="n">
-        <v>0.138</v>
+        <v>0.139</v>
       </c>
       <c r="E8" t="n">
-        <v>0.143</v>
+        <v>0.142</v>
       </c>
       <c r="F8" t="n">
         <v>0.047</v>
       </c>
       <c r="G8" t="n">
-        <v>0.121</v>
+        <v>0.123</v>
       </c>
       <c r="H8" t="n">
         <v>0.019</v>
@@ -1063,19 +1063,19 @@
         <v>0.073</v>
       </c>
       <c r="J8" t="n">
-        <v>0.142</v>
+        <v>0.14</v>
       </c>
       <c r="K8" t="n">
         <v>0.081</v>
       </c>
       <c r="L8" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="M8" t="n">
         <v>0.056</v>
       </c>
       <c r="N8" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="O8" t="n">
         <v>0.19</v>
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0.3104944962428776</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.008462511174878869</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0.4566739148607256</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.05630610902022665</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.155</v>
+        <v>0.157</v>
       </c>
       <c r="G9" t="n">
-        <v>0.091</v>
+        <v>0.089</v>
       </c>
       <c r="H9" t="n">
         <v>0.198</v>
@@ -1148,16 +1148,16 @@
         <v>0.089</v>
       </c>
       <c r="L9" t="n">
-        <v>0.165</v>
+        <v>0.166</v>
       </c>
       <c r="M9" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="N9" t="n">
-        <v>0.179</v>
+        <v>0.175</v>
       </c>
       <c r="O9" t="n">
-        <v>0.295</v>
+        <v>0.296</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1171,16 +1171,16 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>0.2133649258079456</v>
+        <v>0.2132939048889613</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001069710971539961</v>
+        <v>0.001030911687036137</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2252733235609461</v>
+        <v>0.2130482995919524</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02081267341346371</v>
+        <v>0.05072544225647901</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.055</v>
+        <v>0.057</v>
       </c>
       <c r="C10" t="n">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
       <c r="D10" t="n">
-        <v>0.199</v>
+        <v>0.198</v>
       </c>
       <c r="E10" t="n">
         <v>0.02</v>
@@ -1215,28 +1215,28 @@
         <v>0.059</v>
       </c>
       <c r="H10" t="n">
-        <v>0.081</v>
+        <v>0.083</v>
       </c>
       <c r="I10" t="n">
-        <v>0.175</v>
+        <v>0.174</v>
       </c>
       <c r="J10" t="n">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="K10" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="L10" t="n">
-        <v>0.244</v>
+        <v>0.245</v>
       </c>
       <c r="M10" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="N10" t="n">
-        <v>0.073</v>
+        <v>0.077</v>
       </c>
       <c r="O10" t="n">
-        <v>0.197</v>
+        <v>0.194</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>0.2384567540436041</v>
+        <v>0.2219503133126013</v>
       </c>
       <c r="T10" t="n">
-        <v>0.008963738930778266</v>
+        <v>0.01484026104601637</v>
       </c>
       <c r="U10" t="n">
-        <v>0.323589130629325</v>
+        <v>0.3683099430129547</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0343130921567027</v>
+        <v>0.01582903866972981</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0.055</v>
+        <v>0.05700000000000001</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>0.028</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E11" t="n">
-        <v>0.116</v>
+        <v>0.114</v>
       </c>
       <c r="F11" t="n">
         <v>0.172</v>
       </c>
       <c r="G11" t="n">
-        <v>0.187</v>
+        <v>0.185</v>
       </c>
       <c r="H11" t="n">
-        <v>0.136</v>
+        <v>0.137</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="J11" t="n">
-        <v>0.136</v>
+        <v>0.137</v>
       </c>
       <c r="K11" t="n">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
       <c r="L11" t="n">
-        <v>0.342</v>
+        <v>0.347</v>
       </c>
       <c r="M11" t="n">
-        <v>0.049</v>
+        <v>0.044</v>
       </c>
       <c r="N11" t="n">
         <v>0.284</v>
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.137</v>
+        <v>0.135</v>
       </c>
       <c r="C12" t="n">
         <v>0.093</v>
@@ -1379,10 +1379,10 @@
         <v>0.075</v>
       </c>
       <c r="J12" t="n">
-        <v>0.181</v>
+        <v>0.182</v>
       </c>
       <c r="K12" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="L12" t="n">
         <v>0.398</v>
@@ -1408,22 +1408,22 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>0.271342363815675</v>
+        <v>0.263883064188809</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01025877591473929</v>
+        <v>0.00650195042359338</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3662489123770444</v>
+        <v>0.4223422789798243</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06177319645530241</v>
+        <v>0.03209053190682792</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0.137</v>
+        <v>0.135</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1446,34 +1446,34 @@
         <v>0.192</v>
       </c>
       <c r="F13" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="H13" t="n">
-        <v>0.179</v>
+        <v>0.18</v>
       </c>
       <c r="I13" t="n">
-        <v>0.145</v>
+        <v>0.143</v>
       </c>
       <c r="J13" t="n">
         <v>0.079</v>
       </c>
       <c r="K13" t="n">
-        <v>0.167</v>
+        <v>0.168</v>
       </c>
       <c r="L13" t="n">
         <v>0.019</v>
       </c>
       <c r="M13" t="n">
-        <v>0.263</v>
+        <v>0.264</v>
       </c>
       <c r="N13" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O13" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1513,16 +1513,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.183</v>
+        <v>0.182</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
       <c r="E14" t="n">
-        <v>0.218</v>
+        <v>0.217</v>
       </c>
       <c r="F14" t="n">
         <v>0.033</v>
@@ -1531,31 +1531,31 @@
         <v>0.106</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I14" t="n">
         <v>0.076</v>
       </c>
       <c r="J14" t="n">
-        <v>0.21</v>
+        <v>0.206</v>
       </c>
       <c r="K14" t="n">
         <v>0.106</v>
       </c>
       <c r="L14" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="M14" t="n">
         <v>0.288</v>
       </c>
       <c r="N14" t="n">
-        <v>0.177</v>
+        <v>0.172</v>
       </c>
       <c r="O14" t="n">
         <v>0.274</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>0.099</v>
       </c>
       <c r="C15" t="n">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="D15" t="n">
         <v>0.132</v>
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>0.2791763953033333</v>
+        <v>0.28513689273784</v>
       </c>
       <c r="T15" t="n">
-        <v>0.007072995990163393</v>
+        <v>0.001575738904553703</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2751188539503872</v>
+        <v>0.2370197368025954</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02858205422128374</v>
+        <v>0.02801073278962815</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
@@ -1701,16 +1701,16 @@
         <v>0.133</v>
       </c>
       <c r="L16" t="n">
-        <v>0.208</v>
+        <v>0.214</v>
       </c>
       <c r="M16" t="n">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="N16" t="n">
         <v>0.031</v>
       </c>
       <c r="O16" t="n">
-        <v>0.608</v>
+        <v>0.603</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>0.249299272133286</v>
+        <v>0.2768796400373383</v>
       </c>
       <c r="T16" t="n">
-        <v>0.007872458950709944</v>
+        <v>0.00291729512147687</v>
       </c>
       <c r="U16" t="n">
-        <v>0.339497491936239</v>
+        <v>0.3938788997108739</v>
       </c>
       <c r="V16" t="n">
-        <v>0.02022395306265395</v>
+        <v>0.04426562049635473</v>
       </c>
       <c r="W16" t="n">
         <v>1</v>
@@ -1750,34 +1750,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="C17" t="n">
         <v>0.017</v>
       </c>
       <c r="D17" t="n">
-        <v>0.202</v>
+        <v>0.203</v>
       </c>
       <c r="E17" t="n">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="F17" t="n">
-        <v>0.106</v>
+        <v>0.103</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06</v>
+        <v>0.056</v>
       </c>
       <c r="H17" t="n">
-        <v>0.166</v>
+        <v>0.169</v>
       </c>
       <c r="I17" t="n">
         <v>0.056</v>
       </c>
       <c r="J17" t="n">
-        <v>0.172</v>
+        <v>0.169</v>
       </c>
       <c r="K17" t="n">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
       <c r="L17" t="n">
         <v>0.398</v>
@@ -1803,22 +1803,22 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>0.2395947992474798</v>
+        <v>0.2273086195716406</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02250910600900547</v>
+        <v>0.005819462549075154</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3303378684711313</v>
+        <v>0.3122202731252313</v>
       </c>
       <c r="V17" t="n">
-        <v>0.04898800163909695</v>
+        <v>0.05603384310852848</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>

--- a/1st_round_screening/ACE/iteration_0/data/labeled_norm_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/labeled_norm_0.xlsx
@@ -568,16 +568,16 @@
         <v>0.096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.098</v>
       </c>
       <c r="E2" t="n">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.192</v>
+        <v>0.193</v>
       </c>
       <c r="G2" t="n">
         <v>0.016</v>
@@ -586,25 +586,25 @@
         <v>0.02</v>
       </c>
       <c r="I2" t="n">
-        <v>0.068</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="K2" t="n">
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="L2" t="n">
-        <v>0.259</v>
+        <v>0.257</v>
       </c>
       <c r="M2" t="n">
         <v>0.257</v>
       </c>
       <c r="N2" t="n">
-        <v>0.236</v>
+        <v>0.237</v>
       </c>
       <c r="O2" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -618,22 +618,22 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0.1284944116209438</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.006051747791164314</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0.4061233168417438</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.05083964521192057</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.167</v>
+        <v>0.168</v>
       </c>
       <c r="C3" t="n">
         <v>0.068</v>
@@ -656,31 +656,31 @@
         <v>0.151</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.117</v>
+        <v>0.119</v>
       </c>
       <c r="H3" t="n">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="I3" t="n">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="J3" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="K3" t="n">
         <v>0.036</v>
       </c>
       <c r="L3" t="n">
-        <v>0.522</v>
+        <v>0.514</v>
       </c>
       <c r="M3" t="n">
-        <v>0.058</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0.42</v>
+        <v>0.414</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.3191553080663724</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.04019428518809522</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.3567679867730127</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.08148195917926515</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.168</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0.22</v>
       </c>
       <c r="H4" t="n">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
       <c r="I4" t="n">
         <v>0.215</v>
@@ -750,19 +750,19 @@
         <v>0.005</v>
       </c>
       <c r="K4" t="n">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
       <c r="L4" t="n">
         <v>0.101</v>
       </c>
       <c r="M4" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="N4" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O4" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -776,16 +776,16 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>0.2692655305690121</v>
+        <v>0.2290764108111047</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01058232884499269</v>
+        <v>0.002375830481419821</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2725136379896747</v>
+        <v>0.1582568766872103</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04260986067977869</v>
+        <v>0.02998897626462643</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
@@ -805,13 +805,13 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="D5" t="n">
-        <v>0.171</v>
+        <v>0.17</v>
       </c>
       <c r="E5" t="n">
-        <v>0.141</v>
+        <v>0.139</v>
       </c>
       <c r="F5" t="n">
         <v>0.141</v>
@@ -820,7 +820,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.116</v>
+        <v>0.118</v>
       </c>
       <c r="I5" t="n">
         <v>0.039</v>
@@ -832,16 +832,16 @@
         <v>0.145</v>
       </c>
       <c r="L5" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="M5" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="N5" t="n">
         <v>0.065</v>
       </c>
       <c r="O5" t="n">
-        <v>0.219</v>
+        <v>0.224</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -855,16 +855,16 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>0.2307704178819718</v>
+        <v>0.2785740586658293</v>
       </c>
       <c r="T5" t="n">
-        <v>0.004715826848507722</v>
+        <v>0.01538342430568128</v>
       </c>
       <c r="U5" t="n">
-        <v>0.397356653064422</v>
+        <v>0.3276989906116382</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05203536660235145</v>
+        <v>0.009595056029538708</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
@@ -881,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="C6" t="n">
         <v>0.196</v>
@@ -890,10 +890,10 @@
         <v>0.158</v>
       </c>
       <c r="E6" t="n">
-        <v>0.112</v>
+        <v>0.109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.112</v>
+        <v>0.114</v>
       </c>
       <c r="G6" t="n">
         <v>0.051</v>
@@ -908,19 +908,19 @@
         <v>0.046</v>
       </c>
       <c r="K6" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="L6" t="n">
         <v>0.052</v>
       </c>
       <c r="M6" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="N6" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="O6" t="n">
-        <v>0.118</v>
+        <v>0.123</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>0.2894273918082823</v>
+        <v>0.2511940826841229</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01816726631179896</v>
+        <v>0.0001175340231069496</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3886663182560263</v>
+        <v>0.2407942082684122</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04220088652922346</v>
+        <v>0.01377733173531823</v>
       </c>
       <c r="W6" t="n">
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04900000000000001</v>
+        <v>0.048</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -960,49 +960,49 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176</v>
+        <v>0.175</v>
       </c>
       <c r="C7" t="n">
         <v>0.025</v>
       </c>
       <c r="D7" t="n">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G7" t="n">
         <v>0.142</v>
       </c>
       <c r="H7" t="n">
-        <v>0.163</v>
+        <v>0.159</v>
       </c>
       <c r="I7" t="n">
         <v>0.025</v>
       </c>
       <c r="J7" t="n">
-        <v>0.16</v>
+        <v>0.159</v>
       </c>
       <c r="K7" t="n">
-        <v>0.247</v>
+        <v>0.248</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3</v>
+        <v>0.301</v>
       </c>
       <c r="M7" t="n">
-        <v>0.173</v>
+        <v>0.174</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.082</v>
       </c>
       <c r="O7" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1013,22 +1013,22 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>0.2311390837123565</v>
+        <v>0.1969950014055774</v>
       </c>
       <c r="T7" t="n">
-        <v>0.009360170967864338</v>
+        <v>0.004055198291874487</v>
       </c>
       <c r="U7" t="n">
-        <v>0.279739678370664</v>
+        <v>0.1904060659486961</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03927688466609867</v>
+        <v>0.02080207502339983</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0.176</v>
+        <v>0.175</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1042,40 +1042,40 @@
         <v>0.119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="D8" t="n">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="E8" t="n">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
       <c r="F8" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
       <c r="H8" t="n">
         <v>0.019</v>
       </c>
       <c r="I8" t="n">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="J8" t="n">
-        <v>0.14</v>
+        <v>0.143</v>
       </c>
       <c r="K8" t="n">
-        <v>0.081</v>
+        <v>0.082</v>
       </c>
       <c r="L8" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="M8" t="n">
         <v>0.056</v>
       </c>
       <c r="N8" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O8" t="n">
         <v>0.19</v>
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>0.3104944962428776</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0.008462511174878869</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4566739148607256</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0.05630610902022665</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.119</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
       <c r="D9" t="n">
         <v>0.024</v>
@@ -1130,10 +1130,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.157</v>
+        <v>0.155</v>
       </c>
       <c r="G9" t="n">
-        <v>0.089</v>
+        <v>0.091</v>
       </c>
       <c r="H9" t="n">
         <v>0.198</v>
@@ -1145,19 +1145,19 @@
         <v>0.099</v>
       </c>
       <c r="K9" t="n">
-        <v>0.089</v>
+        <v>0.091</v>
       </c>
       <c r="L9" t="n">
-        <v>0.166</v>
+        <v>0.169</v>
       </c>
       <c r="M9" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="N9" t="n">
-        <v>0.175</v>
+        <v>0.173</v>
       </c>
       <c r="O9" t="n">
-        <v>0.296</v>
+        <v>0.298</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1171,16 +1171,16 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>0.2132939048889613</v>
+        <v>0.2186975312281005</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001030911687036137</v>
+        <v>0.01071682449399013</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2130482995919524</v>
+        <v>0.2707943313005062</v>
       </c>
       <c r="V9" t="n">
-        <v>0.05072544225647901</v>
+        <v>0.02958781961517211</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
@@ -1197,10 +1197,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="C10" t="n">
-        <v>0.166</v>
+        <v>0.165</v>
       </c>
       <c r="D10" t="n">
         <v>0.198</v>
@@ -1212,13 +1212,13 @@
         <v>0.077</v>
       </c>
       <c r="G10" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="H10" t="n">
         <v>0.083</v>
       </c>
       <c r="I10" t="n">
-        <v>0.174</v>
+        <v>0.173</v>
       </c>
       <c r="J10" t="n">
         <v>0.028</v>
@@ -1227,7 +1227,7 @@
         <v>0.139</v>
       </c>
       <c r="L10" t="n">
-        <v>0.245</v>
+        <v>0.247</v>
       </c>
       <c r="M10" t="n">
         <v>0.485</v>
@@ -1236,7 +1236,7 @@
         <v>0.077</v>
       </c>
       <c r="O10" t="n">
-        <v>0.194</v>
+        <v>0.191</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>0.2219503133126013</v>
+        <v>0.2630406161130487</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01484026104601637</v>
+        <v>0.003837711102525086</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3683099430129547</v>
+        <v>0.2977119213248108</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01582903866972981</v>
+        <v>0.01330419140503101</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0.05700000000000001</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1279,43 +1279,43 @@
         <v>0.155</v>
       </c>
       <c r="C11" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="D11" t="n">
         <v>0.004</v>
       </c>
       <c r="E11" t="n">
-        <v>0.114</v>
+        <v>0.116</v>
       </c>
       <c r="F11" t="n">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="G11" t="n">
         <v>0.185</v>
       </c>
       <c r="H11" t="n">
-        <v>0.137</v>
+        <v>0.136</v>
       </c>
       <c r="I11" t="n">
         <v>0.004</v>
       </c>
       <c r="J11" t="n">
-        <v>0.137</v>
+        <v>0.136</v>
       </c>
       <c r="K11" t="n">
         <v>0.064</v>
       </c>
       <c r="L11" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="M11" t="n">
-        <v>0.044</v>
+        <v>0.049</v>
       </c>
       <c r="N11" t="n">
-        <v>0.284</v>
+        <v>0.283</v>
       </c>
       <c r="O11" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1329,22 +1329,22 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0.2147847255596217</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.005099425183620458</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0.255007000962565</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.03079584235270097</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1358,43 +1358,43 @@
         <v>0.135</v>
       </c>
       <c r="C12" t="n">
-        <v>0.093</v>
+        <v>0.095</v>
       </c>
       <c r="D12" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="E12" t="n">
         <v>0.082</v>
       </c>
       <c r="F12" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="G12" t="n">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="I12" t="n">
         <v>0.075</v>
       </c>
       <c r="J12" t="n">
-        <v>0.182</v>
+        <v>0.18</v>
       </c>
       <c r="K12" t="n">
         <v>0.026</v>
       </c>
       <c r="L12" t="n">
-        <v>0.398</v>
+        <v>0.394</v>
       </c>
       <c r="M12" t="n">
-        <v>0.205</v>
+        <v>0.206</v>
       </c>
       <c r="N12" t="n">
-        <v>0.256</v>
+        <v>0.257</v>
       </c>
       <c r="O12" t="n">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>0.263883064188809</v>
+        <v>0.2673104222763325</v>
       </c>
       <c r="T12" t="n">
-        <v>0.00650195042359338</v>
+        <v>0.01280292813111107</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4223422789798243</v>
+        <v>0.2736189859506681</v>
       </c>
       <c r="V12" t="n">
-        <v>0.03209053190682792</v>
+        <v>0.03506281699973989</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
@@ -1443,37 +1443,37 @@
         <v>0.073</v>
       </c>
       <c r="E13" t="n">
-        <v>0.192</v>
+        <v>0.194</v>
       </c>
       <c r="F13" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="G13" t="n">
         <v>0.002</v>
       </c>
       <c r="H13" t="n">
-        <v>0.18</v>
+        <v>0.179</v>
       </c>
       <c r="I13" t="n">
-        <v>0.143</v>
+        <v>0.145</v>
       </c>
       <c r="J13" t="n">
         <v>0.079</v>
       </c>
       <c r="K13" t="n">
-        <v>0.168</v>
+        <v>0.167</v>
       </c>
       <c r="L13" t="n">
         <v>0.019</v>
       </c>
       <c r="M13" t="n">
-        <v>0.264</v>
+        <v>0.263</v>
       </c>
       <c r="N13" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O13" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1513,16 +1513,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="C14" t="n">
-        <v>0.182</v>
+        <v>0.183</v>
       </c>
       <c r="D14" t="n">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="E14" t="n">
-        <v>0.217</v>
+        <v>0.221</v>
       </c>
       <c r="F14" t="n">
         <v>0.033</v>
@@ -1531,22 +1531,22 @@
         <v>0.106</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.076</v>
+        <v>0.074</v>
       </c>
       <c r="J14" t="n">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.106</v>
+        <v>0.104</v>
       </c>
       <c r="L14" t="n">
-        <v>0.265</v>
+        <v>0.26</v>
       </c>
       <c r="M14" t="n">
-        <v>0.288</v>
+        <v>0.293</v>
       </c>
       <c r="N14" t="n">
         <v>0.172</v>
@@ -1555,7 +1555,7 @@
         <v>0.274</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1592,25 +1592,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="D15" t="n">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
       <c r="E15" t="n">
         <v>0.05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="H15" t="n">
-        <v>0.149</v>
+        <v>0.148</v>
       </c>
       <c r="I15" t="n">
         <v>0.103</v>
@@ -1619,7 +1619,7 @@
         <v>0.06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
       <c r="L15" t="n">
         <v>0.11</v>
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>0.28513689273784</v>
+        <v>0.2523563311140505</v>
       </c>
       <c r="T15" t="n">
-        <v>0.001575738904553703</v>
+        <v>0.007142263688252661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2370197368025954</v>
+        <v>0.1686356714099053</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02801073278962815</v>
+        <v>0.04573077111154008</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0.09900000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>0.143</v>
       </c>
       <c r="D16" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="E16" t="n">
-        <v>0.092</v>
+        <v>0.094</v>
       </c>
       <c r="F16" t="n">
         <v>0.126</v>
@@ -1689,7 +1689,7 @@
         <v>0.091</v>
       </c>
       <c r="H16" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="I16" t="n">
         <v>0.14</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>0.2768796400373383</v>
+        <v>0.3169041435280837</v>
       </c>
       <c r="T16" t="n">
-        <v>0.00291729512147687</v>
+        <v>0.004220268741447002</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3938788997108739</v>
+        <v>0.4319952545179766</v>
       </c>
       <c r="V16" t="n">
-        <v>0.04426562049635473</v>
+        <v>0.09725797094706691</v>
       </c>
       <c r="W16" t="n">
         <v>1</v>
@@ -1750,19 +1750,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="C17" t="n">
         <v>0.017</v>
       </c>
       <c r="D17" t="n">
-        <v>0.203</v>
+        <v>0.202</v>
       </c>
       <c r="E17" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="F17" t="n">
-        <v>0.103</v>
+        <v>0.106</v>
       </c>
       <c r="G17" t="n">
         <v>0.056</v>
@@ -1803,22 +1803,22 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>0.2273086195716406</v>
+        <v>0.2460256074541057</v>
       </c>
       <c r="T17" t="n">
-        <v>0.005819462549075154</v>
+        <v>0.005748263323443141</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3122202731252313</v>
+        <v>0.2694247008547361</v>
       </c>
       <c r="V17" t="n">
-        <v>0.05603384310852848</v>
+        <v>0.01836701523482775</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
